--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>532100</v>
+      </c>
+      <c r="E8" s="3">
         <v>652900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>617000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>615000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>518700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>659900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>597700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>608900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>514900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>683900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>595600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>545300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>442900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>484700</v>
+      </c>
+      <c r="E9" s="3">
         <v>591200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>545700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>542600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>472400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>586700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>518200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>536100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>462300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>587700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>517600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>472500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>395400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E10" s="3">
         <v>61700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>96200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>72800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1200</v>
       </c>
       <c r="F12" s="3">
         <v>1200</v>
       </c>
       <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="3">
         <v>1300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1600</v>
       </c>
       <c r="I12" s="3">
         <v>1600</v>
       </c>
       <c r="J12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>7600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,40 +1048,43 @@
         <v>4000</v>
       </c>
       <c r="F15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="3">
         <v>4600</v>
       </c>
       <c r="H15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I15" s="3">
         <v>4500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>536800</v>
+      </c>
+      <c r="E17" s="3">
         <v>657900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>601100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>598900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>529900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>678300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>568800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>592500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>513900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>642700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>566800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>531000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>456600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1222,184 +1256,199 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5600</v>
       </c>
       <c r="F26" s="3">
         <v>5600</v>
       </c>
       <c r="G26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5600</v>
       </c>
       <c r="F27" s="3">
         <v>5600</v>
       </c>
       <c r="G27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1591,20 +1652,20 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>10400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5600</v>
       </c>
       <c r="F33" s="3">
         <v>5600</v>
       </c>
       <c r="G33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5600</v>
       </c>
       <c r="F35" s="3">
         <v>5600</v>
       </c>
       <c r="G35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E43" s="3">
         <v>253500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>236200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>281500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>225000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>266900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>232800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>251700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>224200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>243200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>243400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>223300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>532700</v>
+      </c>
+      <c r="E44" s="3">
         <v>513400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>557900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>536300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>529800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>514000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>531500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>483900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>486700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>452400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>457800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>341500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E45" s="3">
         <v>38900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>853400</v>
+      </c>
+      <c r="E46" s="3">
         <v>809100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>865200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>864600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>813600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>843100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>803200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>763500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>737700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>726800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>730200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>673300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>561000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E48" s="3">
         <v>201700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>203200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>206500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>241100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>238800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>227600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>217100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>207600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>198200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>161900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E49" s="3">
         <v>319700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>323700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>327500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>332000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>336400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>342500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>346700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>349900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>301100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>295500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>215500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
         <v>16600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9400</v>
       </c>
       <c r="L52" s="3">
         <v>9400</v>
       </c>
       <c r="M52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1347100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1406100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1413300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1374600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1408100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1403100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1358700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1324500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1254400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1246100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1175400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>942200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,66 +2749,70 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>211000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>196500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>163900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>218100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>167200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>188100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>144300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>217300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>170200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>140600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1800</v>
       </c>
       <c r="F58" s="3">
         <v>1800</v>
       </c>
       <c r="G58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
@@ -2687,7 +2821,7 @@
         <v>1300</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
@@ -2701,190 +2835,205 @@
       <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>800</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>217100</v>
+      </c>
+      <c r="E59" s="3">
         <v>231600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>202000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>185900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>197800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>184500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>192100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>187800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>182800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>407900</v>
+      </c>
+      <c r="E60" s="3">
         <v>436000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>434500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>351100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>417200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>355000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>373400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>336400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>410100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>358800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>326900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>294200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>458300</v>
+      </c>
+      <c r="E61" s="3">
         <v>376600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>416800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>460000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>470400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>420600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>440400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>368900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>371500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>299400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>280800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>336000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>910100</v>
+      </c>
+      <c r="E66" s="3">
         <v>842100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>889600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>898000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>859500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>876700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>839700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>777300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>743000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>682000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>698300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>640000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>664400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>40600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>40400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>495900</v>
+      </c>
+      <c r="E76" s="3">
         <v>505000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>516500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>515300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>515100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>531400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>563400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>581400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>581600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>572400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>547700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>535400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>277800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5600</v>
       </c>
       <c r="F81" s="3">
         <v>5600</v>
       </c>
       <c r="G81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E83" s="3">
         <v>10900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11000</v>
       </c>
       <c r="L83" s="3">
         <v>11000</v>
       </c>
       <c r="M83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>30500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>61200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-72400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3969,37 +4190,40 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-158400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,19 +4394,19 @@
         <v>-3100</v>
       </c>
       <c r="F96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3100</v>
       </c>
       <c r="H96" s="3">
         <v>-3100</v>
       </c>
       <c r="I96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3200</v>
       </c>
       <c r="K96" s="3">
         <v>-3200</v>
@@ -4181,7 +4415,7 @@
         <v>-3200</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-41700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>140200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-71400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>182300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E8" s="3">
         <v>532100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>652900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>617000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>615000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>518700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>659900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>597700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>608900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>514900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>683900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>595600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>545300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>442900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>494600</v>
+      </c>
+      <c r="E9" s="3">
         <v>484700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>591200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>545700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>542600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>472400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>586700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>518200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>536100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>462300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>587700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>517600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>472500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>395400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E10" s="3">
         <v>47400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>79500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>96200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1200</v>
       </c>
       <c r="G12" s="3">
         <v>1200</v>
       </c>
       <c r="H12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1600</v>
       </c>
       <c r="J12" s="3">
         <v>1600</v>
       </c>
       <c r="K12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,60 +1005,66 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
@@ -1051,40 +1073,43 @@
         <v>4000</v>
       </c>
       <c r="G15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="3">
         <v>4600</v>
       </c>
       <c r="I15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J15" s="3">
         <v>4500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>557400</v>
+      </c>
+      <c r="E17" s="3">
         <v>536800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>657900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>601100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>598900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>529900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>678300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>568800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>592500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>513900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>642700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>566800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>531000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>456600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,140 +1354,149 @@
         <v>7300</v>
       </c>
       <c r="E22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5600</v>
       </c>
       <c r="G26" s="3">
         <v>5600</v>
       </c>
       <c r="H26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5600</v>
       </c>
       <c r="G27" s="3">
         <v>5600</v>
       </c>
       <c r="H27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,13 +1692,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>3500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -1655,20 +1715,20 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>10400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5600</v>
       </c>
       <c r="G33" s="3">
         <v>5600</v>
       </c>
       <c r="H33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5600</v>
       </c>
       <c r="G35" s="3">
         <v>5600</v>
       </c>
       <c r="H35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
         <v>67300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>217200</v>
+      </c>
+      <c r="E43" s="3">
         <v>230500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>253500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>236200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>281500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>225000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>266900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>232800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>251700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>224200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>243200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>243400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>223300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>188000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E44" s="3">
         <v>532700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>513400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>557900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>536300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>529800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>514000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>531500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>483900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>486700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>452400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>457800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>341500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E45" s="3">
         <v>22900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>923800</v>
+      </c>
+      <c r="E46" s="3">
         <v>853400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>809100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>865200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>864600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>813600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>843100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>803200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>763500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>737700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>726800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>730200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>673300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>561000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220600</v>
+      </c>
+      <c r="E48" s="3">
         <v>220400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>201700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>203200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>206500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>241100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>238800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>227600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>217100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>207600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>198200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>161900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E49" s="3">
         <v>315700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>319700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>323700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>327500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>332000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>336400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>342500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>346700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>349900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>301100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>300300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>295500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>215500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9400</v>
       </c>
       <c r="M52" s="3">
         <v>9400</v>
       </c>
       <c r="N52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1462900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1406000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1347100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1406100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1413300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1374600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1408100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1403100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1358700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1324500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1254400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1246100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1175400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>942200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,72 +2879,76 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E57" s="3">
         <v>187400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>211000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>196500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>163900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>218100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>167200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>188100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>144300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>217300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>170200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>140600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1800</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
@@ -2824,7 +2957,7 @@
         <v>1300</v>
       </c>
       <c r="K58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
@@ -2838,202 +2971,217 @@
       <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>280300</v>
+      </c>
+      <c r="E59" s="3">
         <v>217100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>231600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>202000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>185900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>197800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>192100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>187800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>185500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>182800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>475200</v>
+      </c>
+      <c r="E60" s="3">
         <v>407900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>436000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>434500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>351100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>417200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>355000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>373400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>336400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>410100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>358800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>326900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>294200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>440800</v>
+      </c>
+      <c r="E61" s="3">
         <v>458300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>376600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>416800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>460000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>470400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>420600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>440400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>368900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>371500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>299400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>280800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>336000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E62" s="3">
         <v>43900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E66" s="3">
         <v>910100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>842100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>889600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>898000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>859500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>876700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>839700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>777300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>743000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>682000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>698300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>640000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>664400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>40600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>484900</v>
+      </c>
+      <c r="E76" s="3">
         <v>495900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>505000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>516500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>515300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>515100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>531400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>563400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>581400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>581600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>572400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>547700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>535400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>277800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5600</v>
       </c>
       <c r="G81" s="3">
         <v>5600</v>
       </c>
       <c r="H81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E83" s="3">
         <v>10800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>11000</v>
       </c>
       <c r="M83" s="3">
         <v>11000</v>
       </c>
       <c r="N83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-72400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,17 +4394,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4193,37 +4413,40 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-158400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,13 +4614,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E96" s="3">
         <v>-3100</v>
@@ -4397,19 +4630,19 @@
         <v>-3100</v>
       </c>
       <c r="G96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3100</v>
       </c>
       <c r="I96" s="3">
         <v>-3100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3200</v>
       </c>
       <c r="L96" s="3">
         <v>-3200</v>
@@ -4418,7 +4651,7 @@
         <v>-3200</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E100" s="3">
         <v>78600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-41700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>140200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-71400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>182300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>76300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E102" s="3">
         <v>64000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>582200</v>
+      </c>
+      <c r="E8" s="3">
         <v>547000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>532100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>652900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>617000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>615000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>518700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>659900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>597700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>608900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>514900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>683900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>595600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>545300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>442900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E9" s="3">
         <v>494600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>484700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>591200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>545700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>542600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>472400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>586700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>518200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>536100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>462300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>587700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>517600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>472500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>395400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E10" s="3">
         <v>52400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>96200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>78000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1200</v>
       </c>
       <c r="H12" s="3">
         <v>1200</v>
       </c>
       <c r="I12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J12" s="3">
         <v>1300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1600</v>
       </c>
       <c r="K12" s="3">
         <v>1600</v>
       </c>
       <c r="L12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,66 +1025,72 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4000</v>
       </c>
       <c r="F15" s="3">
         <v>4000</v>
@@ -1076,40 +1099,43 @@
         <v>4000</v>
       </c>
       <c r="H15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="3">
         <v>4600</v>
       </c>
       <c r="J15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>580600</v>
+      </c>
+      <c r="E17" s="3">
         <v>557400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>536800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>657900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>601100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>598900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>529900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>678300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>568800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>592500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>513900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>642700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>566800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>531000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>456600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,208 +1329,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>5700</v>
       </c>
       <c r="E22" s="3">
         <v>7300</v>
       </c>
       <c r="F22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5600</v>
       </c>
       <c r="H26" s="3">
         <v>5600</v>
       </c>
       <c r="I26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5600</v>
       </c>
       <c r="H27" s="3">
         <v>5600</v>
       </c>
       <c r="I27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>3500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1718,20 +1779,20 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>10400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5600</v>
       </c>
       <c r="H33" s="3">
         <v>5600</v>
       </c>
       <c r="I33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5600</v>
       </c>
       <c r="H35" s="3">
         <v>5600</v>
       </c>
       <c r="I35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E41" s="3">
         <v>21500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E43" s="3">
         <v>217200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>253500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>236200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>281500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>225000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>266900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>232800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>251700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>224200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>243200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>243400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>223300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>188000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>572300</v>
+      </c>
+      <c r="E44" s="3">
         <v>594000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>532700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>513400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>557900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>536300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>529800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>514000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>531500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>483900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>486700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>452400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>457800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>341500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E45" s="3">
         <v>91100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>886800</v>
+      </c>
+      <c r="E46" s="3">
         <v>923800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>853400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>809100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>865200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>864600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>813600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>843100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>803200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>763500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>737700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>726800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>730200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>673300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>561000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E48" s="3">
         <v>220600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>220400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>201700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>203200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>206500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>214300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>241100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>238800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>227600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>217100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>207600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>198200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>161900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E49" s="3">
         <v>302500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>315700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>319700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>323700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>327500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>332000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>336400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>342500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>346700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>349900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>301100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>300300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>295500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>215500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2819,52 @@
         <v>16000</v>
       </c>
       <c r="E52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F52" s="3">
         <v>16500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9400</v>
       </c>
       <c r="N52" s="3">
         <v>9400</v>
       </c>
       <c r="O52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1409400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1462900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1406000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1347100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1406100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1413300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1374600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1408100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1403100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1358700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1324500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1254400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1246100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1175400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>942200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E57" s="3">
         <v>193200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>187400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>211000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>196500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>163900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>218100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>167200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>188100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>144300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>217300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>170200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>140600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>111400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,19 +3073,19 @@
         <v>1700</v>
       </c>
       <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1800</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
       </c>
       <c r="I58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
@@ -2960,7 +3094,7 @@
         <v>1300</v>
       </c>
       <c r="L58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
@@ -2974,214 +3108,229 @@
       <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>291300</v>
+      </c>
+      <c r="E59" s="3">
         <v>280300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>217100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>231600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>202000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>185900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>197800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>186500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>184500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>192100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>187800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>182800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E60" s="3">
         <v>475200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>407900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>436000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>434500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>351100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>417200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>355000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>373400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>336400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>410100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>358800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>326900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>294200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E61" s="3">
         <v>440800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>458300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>376600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>416800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>470400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>420600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>440400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>368900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>371500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>229100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>299400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>280800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>336000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E62" s="3">
         <v>62000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>927300</v>
+      </c>
+      <c r="E66" s="3">
         <v>978000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>910100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>842100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>889600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>898000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>859500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>876700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>839700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>777300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>743000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>682000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>698300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>640000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>664400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>482100</v>
+      </c>
+      <c r="E76" s="3">
         <v>484900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>495900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>505000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>516500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>515300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>515100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>531400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>563400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>581400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>581600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>572400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>547700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>535400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>277800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5600</v>
       </c>
       <c r="H81" s="3">
         <v>5600</v>
       </c>
       <c r="I81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>10900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11000</v>
       </c>
       <c r="N83" s="3">
         <v>11000</v>
       </c>
       <c r="O83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>35300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-72400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,20 +4615,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4416,37 +4637,40 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-158400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,7 +4858,7 @@
         <v>-3200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F96" s="3">
         <v>-3100</v>
@@ -4633,19 +4867,19 @@
         <v>-3100</v>
       </c>
       <c r="H96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3100</v>
       </c>
       <c r="J96" s="3">
         <v>-3100</v>
       </c>
       <c r="K96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3200</v>
       </c>
       <c r="M96" s="3">
         <v>-3200</v>
@@ -4654,7 +4888,7 @@
         <v>-3200</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>78600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-41700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>140200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>182300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>76300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>616300</v>
+      </c>
+      <c r="F8" s="3">
         <v>582200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>547000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>532100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>652900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>617000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>615000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>518700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>659900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>597700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>608900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>514900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>683900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>595600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>545300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>442900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>492300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>554500</v>
+      </c>
+      <c r="F9" s="3">
         <v>515700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>494600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>484700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>591200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>545700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>542600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>472400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>586700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>518200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>536100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>462300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>587700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>517600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>472500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>395400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F10" s="3">
         <v>66500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>52400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>47400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>61700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>71300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>72400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>46300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>73200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>79500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>72800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>52600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>96200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>78000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>72800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>47500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1200</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1000</v>
       </c>
       <c r="R12" s="3">
         <v>1200</v>
       </c>
       <c r="S12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,114 +1062,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F14" s="3">
         <v>8300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>35900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>12300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4000</v>
       </c>
       <c r="H15" s="3">
         <v>4000</v>
       </c>
       <c r="I15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K15" s="3">
         <v>4600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4500</v>
       </c>
       <c r="L15" s="3">
         <v>4600</v>
       </c>
       <c r="M15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O15" s="3">
         <v>4300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>5100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>548500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>623500</v>
+      </c>
+      <c r="F17" s="3">
         <v>580600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>557400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>536800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>657900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>601100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>598900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>529900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>678300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>568800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>592500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>513900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>642700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>566800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>531000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>456600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>16100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>28900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>41200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>14300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-13700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,220 +1400,250 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>10800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>27500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>40700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>27500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>12000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>52300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>22200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-17700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>22100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>10900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-21100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-7800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>22700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-13300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-13300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,22 +1872,28 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>3500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1782,23 +1904,23 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>2100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>10400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>18300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-13300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>18300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-13300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F41" s="3">
         <v>17300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>67300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>17800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>14000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>229300</v>
+      </c>
+      <c r="F43" s="3">
         <v>239300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>217200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>230500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>253500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>236200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>281500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>225000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>266900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>232800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>251700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>224200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>243200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>243400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>223300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>188000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>533200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>537200</v>
+      </c>
+      <c r="F44" s="3">
         <v>572300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>594000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>532700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>513400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>557900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>536300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>529800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>514000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>531500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>483900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>486700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>452400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>457800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>417600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>341500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F45" s="3">
         <v>57900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>91100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>22900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>38900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>51300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>40300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>45300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>50300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>16400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>777300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>812000</v>
+      </c>
+      <c r="F46" s="3">
         <v>886800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>923800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>853400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>809100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>865200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>864600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>813600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>843100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>803200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>763500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>737700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>726800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>730200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>673300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>561000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>191600</v>
+      </c>
+      <c r="F48" s="3">
         <v>207000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>220600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>220400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>201700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>203200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>206500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>214000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>214300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>241100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>238800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>227600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>217100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>207600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>198200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>161900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F49" s="3">
         <v>299600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>302500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>315700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>319700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>323700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>327500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>332000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>336400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>342500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>346700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>349900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>301100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>295500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>215500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>16600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>15000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1259100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1312300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1409400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1462900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1406000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1347100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1406100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1413300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1374600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1408100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1403100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1358700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1324500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1254400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1175400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>942200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>169500</v>
+      </c>
+      <c r="F57" s="3">
         <v>175800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>193200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>187400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>211000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>196500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>163900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>218100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>167200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>188100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>144300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>217300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>170200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>140600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>111400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,31 +3344,31 @@
         <v>1700</v>
       </c>
       <c r="F58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1300</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
       </c>
       <c r="M58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
@@ -3111,226 +3379,256 @@
       <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>272700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>276100</v>
+      </c>
+      <c r="F59" s="3">
         <v>291300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>280300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>217100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>231600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>221700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>202000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>185900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>197800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>186500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>184500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>191300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>192100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>187800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>185500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>182800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>403100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>447300</v>
+      </c>
+      <c r="F60" s="3">
         <v>468800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>475200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>407900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>436000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>434500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>351100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>417200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>355000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>373400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>336400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>410100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>358800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>326900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>294200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>340500</v>
+      </c>
+      <c r="F61" s="3">
         <v>388700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>440800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>458300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>376600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>416800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>460000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>470400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>420600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>440400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>368900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>371500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>229100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>299400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>280800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>336000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F62" s="3">
         <v>69800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>62000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>43900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>29300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>37300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>37000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>37900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>44300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>35000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>42800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>40200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>32400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>34200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>783800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>840000</v>
+      </c>
+      <c r="F66" s="3">
         <v>927300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>978000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>910100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>842100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>889600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>898000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>859500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>876700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>839700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>777300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>743000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>682000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>698300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>640000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>664400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>27600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>25200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>40600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>65900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>50700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>46600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>40400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>20900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>475300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>472300</v>
+      </c>
+      <c r="F76" s="3">
         <v>482100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>484900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>495900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>505000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>516500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>515300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>515100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>531400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>563400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>581400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>581600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>572400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>547700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>535400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>277800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>18300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-13300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F83" s="3">
         <v>9200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10800</v>
       </c>
       <c r="G83" s="3">
         <v>10900</v>
       </c>
       <c r="H83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>7900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>35300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>30500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>61200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-39400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>37600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>28500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-72400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>93200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-25100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-33700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-26300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F94" s="3">
         <v>48300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-57200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>11900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-19900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-72900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-158400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-38300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,52 +5315,54 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3100</v>
       </c>
       <c r="H96" s="3">
         <v>-3100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J96" s="3">
         <v>-3100</v>
       </c>
       <c r="K96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3200</v>
       </c>
       <c r="O96" s="3">
         <v>-3200</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-55500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-23900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>78600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-41700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-48700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-29900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>34400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-11700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>140200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-71400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>15700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>182300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>76300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-45800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>64000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-16500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-2800</v>
       </c>
       <c r="L102" s="3">
         <v>1600</v>
       </c>
       <c r="M102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>643600</v>
+      </c>
+      <c r="E8" s="3">
         <v>554000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>616300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>582200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>547000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>532100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>652900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>617000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>615000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>518700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>659900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>597700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>608900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>514900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>683900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>595600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>545300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>442900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>556200</v>
+      </c>
+      <c r="E9" s="3">
         <v>492300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>554500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>515700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>494600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>484700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>591200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>545700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>542600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>472400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>586700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>518200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>536100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>462300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>587700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>517600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>472500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>395400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E10" s="3">
         <v>61700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>96200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>78000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>72800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
       </c>
       <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
         <v>1300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1600</v>
       </c>
       <c r="N12" s="3">
         <v>1600</v>
       </c>
       <c r="O12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,84 +1084,90 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4000</v>
       </c>
       <c r="I15" s="3">
         <v>4000</v>
@@ -1154,40 +1176,43 @@
         <v>4000</v>
       </c>
       <c r="K15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="L15" s="3">
         <v>4600</v>
       </c>
       <c r="M15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>610300</v>
+      </c>
+      <c r="E17" s="3">
         <v>548500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>623500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>580600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>557400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>536800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>657900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>601100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>598900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>529900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>678300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>568800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>592500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>513900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>642700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>566800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>531000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>456600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1406,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E21" s="3">
         <v>14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1474,176 +1513,185 @@
         <v>5500</v>
       </c>
       <c r="E22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7300</v>
       </c>
       <c r="H22" s="3">
         <v>7300</v>
       </c>
       <c r="I22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5600</v>
       </c>
       <c r="K26" s="3">
         <v>5600</v>
       </c>
       <c r="L26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5600</v>
       </c>
       <c r="K27" s="3">
         <v>5600</v>
       </c>
       <c r="L27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,25 +1935,28 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>3500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1910,20 +1970,20 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5600</v>
       </c>
       <c r="K33" s="3">
         <v>5600</v>
       </c>
       <c r="L33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5600</v>
       </c>
       <c r="K35" s="3">
         <v>5600</v>
       </c>
       <c r="L35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E43" s="3">
         <v>207700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>229300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>239300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>217200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>253500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>236200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>281500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>266900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>232800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>251700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>243200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>243400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>223300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>188000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>532900</v>
+      </c>
+      <c r="E44" s="3">
         <v>533200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>537200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>572300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>594000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>532700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>513400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>557900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>536300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>529800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>514000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>531500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>483900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>486700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>452400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>457800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>417600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>341500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
         <v>27300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>810100</v>
+      </c>
+      <c r="E46" s="3">
         <v>777300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>812000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>886800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>923800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>853400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>809100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>865200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>864600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>813600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>843100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>803200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>763500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>737700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>726800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>730200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>673300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>561000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E48" s="3">
         <v>175500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>191600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>207000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>220600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>220400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>201700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>203200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>206500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>214000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>214300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>241100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>238800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>227600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>217100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>207600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>198200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>161900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E49" s="3">
         <v>290900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>293400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>299600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>302500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>315700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>319700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>323700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>327500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>332000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>336400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>342500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>346700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>349900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>301100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>300300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>295500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>215500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E52" s="3">
         <v>15400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>16000</v>
       </c>
       <c r="G52" s="3">
         <v>16000</v>
       </c>
       <c r="H52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I52" s="3">
         <v>16500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>9400</v>
       </c>
       <c r="Q52" s="3">
         <v>9400</v>
       </c>
       <c r="R52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="S52" s="3">
         <v>8000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1292900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1259100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1312300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1409400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1462900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1406000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1347100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1406100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1413300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1374600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1408100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1403100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1358700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1324500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1254400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1246100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1175400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>942200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,72 +3402,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E57" s="3">
         <v>128700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>169500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>175800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>193200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>187400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>211000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>196500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>163900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>218100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>167200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>188100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>144300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>217300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>170200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>140600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>111400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1700</v>
@@ -3350,19 +3483,19 @@
         <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1800</v>
       </c>
       <c r="K58" s="3">
         <v>1800</v>
       </c>
       <c r="L58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
@@ -3371,7 +3504,7 @@
         <v>1300</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
@@ -3385,250 +3518,265 @@
       <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E59" s="3">
         <v>272700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>276100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>291300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>280300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>217100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>231600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>221700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>197800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>191300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>192100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>187800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>185500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>182800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E60" s="3">
         <v>403100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>447300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>468800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>475200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>407900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>436000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>434500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>351100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>417200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>355000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>373400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>336400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>410100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>358800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>326900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>294200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E61" s="3">
         <v>330400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>340500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>388700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>440800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>458300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>376600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>416800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>460000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>470400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>420600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>440400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>368900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>371500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>229100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>299400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>280800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>336000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E62" s="3">
         <v>50300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>69800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>794100</v>
+      </c>
+      <c r="E66" s="3">
         <v>783800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>840000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>927300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>978000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>910100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>842100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>889600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>898000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>859500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>876700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>839700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>777300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>743000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>682000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>698300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>640000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>664400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-21100</v>
+        <v>-500</v>
       </c>
       <c r="E72" s="3">
         <v>-21100</v>
       </c>
       <c r="F72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>27600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>65900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>498800</v>
+      </c>
+      <c r="E76" s="3">
         <v>475300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>472300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>482100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>484900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>495900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>505000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>516500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>515300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>515100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>531400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>563400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>581400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>581600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>572400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>547700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>535400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>277800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>20600</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5600</v>
       </c>
       <c r="K81" s="3">
         <v>5600</v>
       </c>
       <c r="L81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>11000</v>
       </c>
       <c r="Q83" s="3">
         <v>11000</v>
       </c>
       <c r="R83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-39400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,29 +5277,30 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5088,37 +5308,40 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>48300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-158400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,13 +5562,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-3200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I96" s="3">
         <v>-3100</v>
@@ -5344,19 +5577,19 @@
         <v>-3100</v>
       </c>
       <c r="K96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3100</v>
       </c>
       <c r="M96" s="3">
         <v>-3100</v>
       </c>
       <c r="N96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3200</v>
       </c>
       <c r="P96" s="3">
         <v>-3200</v>
@@ -5365,7 +5598,7 @@
         <v>-3200</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>78600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-41700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>140200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>182300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>76300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>593300</v>
+      </c>
+      <c r="E8" s="3">
         <v>643600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>554000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>616300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>582200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>547000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>532100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>652900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>617000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>615000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>518700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>597700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>608900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>514900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>683900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>595600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>545300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>442900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E9" s="3">
         <v>556200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>492300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>554500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>515700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>494600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>484700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>591200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>545700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>542600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>472400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>586700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>518200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>536100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>462300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>587700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>517600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>472500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>395400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E10" s="3">
         <v>87400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>96200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>78000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>72800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1200</v>
       </c>
       <c r="L12" s="3">
         <v>1200</v>
       </c>
       <c r="M12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N12" s="3">
         <v>1300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1600</v>
       </c>
       <c r="O12" s="3">
         <v>1600</v>
       </c>
       <c r="P12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,90 +1104,96 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4000</v>
       </c>
       <c r="J15" s="3">
         <v>4000</v>
@@ -1179,40 +1202,43 @@
         <v>4000</v>
       </c>
       <c r="L15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="M15" s="3">
         <v>4600</v>
       </c>
       <c r="N15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>563800</v>
+      </c>
+      <c r="E17" s="3">
         <v>610300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>548500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>623500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>580600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>557400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>536800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>657900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>601100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>598900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>529900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>678300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>568800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>592500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>513900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>642700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>566800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>531000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>456600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E18" s="3">
         <v>33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1442,256 +1476,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E21" s="3">
         <v>41400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>52300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
         <v>5500</v>
       </c>
       <c r="F22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7300</v>
       </c>
       <c r="I22" s="3">
         <v>7300</v>
       </c>
       <c r="J22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E23" s="3">
         <v>27800</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-21100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>7200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E26" s="3">
         <v>20600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5600</v>
       </c>
       <c r="L26" s="3">
         <v>5600</v>
       </c>
       <c r="M26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E27" s="3">
         <v>20600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5600</v>
       </c>
       <c r="L27" s="3">
         <v>5600</v>
       </c>
       <c r="M27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1949,17 +2010,17 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>3500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1973,20 +2034,20 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>10400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E33" s="3">
         <v>20600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5600</v>
       </c>
       <c r="L33" s="3">
         <v>5600</v>
       </c>
       <c r="M33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E35" s="3">
         <v>20600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5600</v>
       </c>
       <c r="L35" s="3">
         <v>5600</v>
       </c>
       <c r="M35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E43" s="3">
         <v>231100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>207700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>229300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>239300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>217200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>230500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>253500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>236200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>281500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>225000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>266900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>232800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>251700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>243200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>243400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>223300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>188000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>519700</v>
+      </c>
+      <c r="E44" s="3">
         <v>532900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>533200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>537200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>572300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>594000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>532700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>513400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>557900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>536300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>529800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>514000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>531500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>483900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>486700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>452400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>457800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>417600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>341500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>91100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>774300</v>
+      </c>
+      <c r="E46" s="3">
         <v>810100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>777300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>812000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>886800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>923800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>853400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>809100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>865200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>864600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>813600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>843100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>803200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>763500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>737700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>726800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>730200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>673300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>561000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E48" s="3">
         <v>172800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>191600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>207000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>220600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>220400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>201700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>203200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>206500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>214000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>214300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>241100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>238800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>227600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>217100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>207600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>198200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>161900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E49" s="3">
         <v>288400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>290900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>293400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>299600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>302500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>315700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>319700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>323700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>327500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>332000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>336400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>342500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>346700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>349900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>301100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>300300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>295500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>215500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,61 +3298,64 @@
         <v>21600</v>
       </c>
       <c r="E52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F52" s="3">
         <v>15400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>16000</v>
       </c>
       <c r="H52" s="3">
         <v>16000</v>
       </c>
       <c r="I52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J52" s="3">
         <v>16500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>9400</v>
       </c>
       <c r="R52" s="3">
         <v>9400</v>
       </c>
       <c r="S52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T52" s="3">
         <v>8000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1292900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1259100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1312300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1409400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1462900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1406000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1347100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1406100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1413300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1374600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1408100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1403100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1358700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1324500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1254400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1246100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1175400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>942200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E57" s="3">
         <v>137200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>128700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>169500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>175800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>193200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>187400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>211000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>196500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>163900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>218100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>167200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>188100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>144300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>217300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>170200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>140600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>111400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>1700</v>
@@ -3486,19 +3620,19 @@
         <v>1700</v>
       </c>
       <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1800</v>
       </c>
       <c r="L58" s="3">
         <v>1800</v>
       </c>
       <c r="M58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
@@ -3507,7 +3641,7 @@
         <v>1300</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
@@ -3521,262 +3655,277 @@
       <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E59" s="3">
         <v>301800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>272700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>276100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>291300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>280300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>217100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>231600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>197800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>186500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>191300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>192100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>187800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>185500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>182800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E60" s="3">
         <v>439000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>403100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>447300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>468800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>475200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>407900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>436000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>434500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>351100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>417200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>355000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>373400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>336400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>410100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>358800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>326900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>294200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E61" s="3">
         <v>306000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>330400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>340500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>388700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>440800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>458300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>376600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>416800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>460000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>470400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>420600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>440400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>368900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>371500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>229100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>299400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>280800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>336000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E62" s="3">
         <v>49100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>69800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>731400</v>
+      </c>
+      <c r="E66" s="3">
         <v>794100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>783800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>840000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>927300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>978000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>910100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>842100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>889600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>898000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>859500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>876700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>839700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>777300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>743000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>682000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>698300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>640000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>664400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-21100</v>
       </c>
       <c r="F72" s="3">
         <v>-21100</v>
       </c>
       <c r="G72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>65900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E76" s="3">
         <v>498800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>475300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>472300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>482100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>484900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>495900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>505000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>515300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>515100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>531400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>563400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>581400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>581600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>572400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>547700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>535400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>277800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E81" s="3">
         <v>20600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>5600</v>
       </c>
       <c r="L81" s="3">
         <v>5600</v>
       </c>
       <c r="M81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>11000</v>
       </c>
       <c r="R83" s="3">
         <v>11000</v>
       </c>
       <c r="S83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E89" s="3">
         <v>35200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-39400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-72400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-25100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-33700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,32 +5498,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5311,37 +5532,40 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>48300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-158400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5565,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-3200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J96" s="3">
         <v>-3100</v>
@@ -5580,19 +5814,19 @@
         <v>-3100</v>
       </c>
       <c r="L96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3100</v>
       </c>
       <c r="N96" s="3">
         <v>-3100</v>
       </c>
       <c r="O96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q96" s="3">
         <v>-3200</v>
@@ -5601,7 +5835,7 @@
         <v>-3200</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>78600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>34400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>140200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>182300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>76300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>589900</v>
+      </c>
+      <c r="F8" s="3">
         <v>593300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>643600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>554000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>616300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>582200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>547000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>532100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>652900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>617000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>615000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>518700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>659900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>597700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>608900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>514900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>683900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>595600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>545300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>442900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>481200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>524600</v>
+      </c>
+      <c r="F9" s="3">
         <v>516700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>556200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>492300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>554500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>515700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>494600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>484700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>591200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>545700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>542600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>472400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>586700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>518200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>536100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>462300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>587700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>517600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>472500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>395400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F10" s="3">
         <v>76600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>87400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>61700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>61800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>66500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>52400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>61700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>71300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>72400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>46300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>73200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>79500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>72800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>52600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>96200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>78000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>72800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>47500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1100</v>
       </c>
       <c r="L12" s="3">
         <v>1200</v>
       </c>
       <c r="M12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1000</v>
       </c>
       <c r="V12" s="3">
         <v>1200</v>
       </c>
       <c r="W12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,138 +1141,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>5200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>17400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>35900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>12300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4000</v>
       </c>
       <c r="L15" s="3">
         <v>4000</v>
       </c>
       <c r="M15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O15" s="3">
         <v>4600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4500</v>
       </c>
       <c r="P15" s="3">
         <v>4600</v>
       </c>
       <c r="Q15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S15" s="3">
         <v>4300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>4700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>4500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>5100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>2700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>2600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>536100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>579100</v>
+      </c>
+      <c r="F17" s="3">
         <v>563800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>610300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>548500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>623500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>580600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>557400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>536800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>657900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>601100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>598900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>529900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>678300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>568800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>592500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>513900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>642700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>566800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>531000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>456600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F18" s="3">
         <v>29500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>33300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>16400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>41200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>28800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>14300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-13700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-6200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1479,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F21" s="3">
         <v>37000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>27500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>27500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>12000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>52300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>40400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>22200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-6200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,194 +1633,212 @@
         <v>3400</v>
       </c>
       <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>5300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>27800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-17700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-25700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>22100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>10300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>36000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>10900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-21100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-7800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
         <v>23700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>20600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-20900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>16200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>22700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-13300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F27" s="3">
         <v>23700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>20600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-20900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>22700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>15200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-13300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,34 +2115,40 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="3">
+        <v>4200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>3500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2037,23 +2159,23 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>2100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>10400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>23700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>20600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-22100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>18300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>22700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>15200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-13300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>23700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>20600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-22100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>18300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>22700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>15200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-13300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>21500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>67300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>13200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>17800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>14000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>213300</v>
+      </c>
+      <c r="F43" s="3">
         <v>198700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>231100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>207700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>229300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>239300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>217200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>230500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>253500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>236200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>281500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>225000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>266900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>232800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>251700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>224200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>243200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>243400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>223300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>188000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>527600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>481700</v>
+      </c>
+      <c r="F44" s="3">
         <v>519700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>532900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>533200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>537200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>572300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>594000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>532700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>513400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>557900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>536300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>529800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>514000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>531500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>483900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>486700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>452400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>457800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>417600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>341500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>52700</v>
+      </c>
+      <c r="F45" s="3">
         <v>46700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>27300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>34100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>57900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>91100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>38900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>51300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>40300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>45300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>24200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>14700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>14100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>13400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>14900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>18300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>16400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>816900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>761000</v>
+      </c>
+      <c r="F46" s="3">
         <v>774300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>810100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>777300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>812000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>886800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>923800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>853400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>809100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>865200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>864600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>813600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>843100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>803200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>763500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>737700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>726800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>730200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>673300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>561000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3239,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>176700</v>
+      </c>
+      <c r="F48" s="3">
         <v>171000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>172800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>175500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>191600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>207000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>220600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>220400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>201700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>203200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>206500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>214000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>214300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>241100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>238800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>227600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>217100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>207600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>198200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>161900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>283600</v>
+      </c>
+      <c r="F49" s="3">
         <v>286000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>288400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>290900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>293400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>299600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>302500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>315700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>319700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>323700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>327500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>332000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>336400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>342500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>346700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>349900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>301100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>300300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>295500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>215500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F52" s="3">
         <v>21600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>21600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>15400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>14700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>16300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>8500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1238300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1252900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1292900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1259100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1312300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1409400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1462900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1406000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1347100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1406100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1413300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1374600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1408100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1403100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1358700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1324500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1254400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1246100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1175400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>942200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,87 +3794,95 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>116200</v>
+      </c>
+      <c r="F57" s="3">
         <v>129600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>137200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>128700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>169500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>175800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>193200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>187400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>211000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>196500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>163900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>218100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>167200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>188100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>144300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>217300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>170200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>140600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>111400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
@@ -3623,31 +3891,31 @@
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1300</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
       <c r="Q58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="R58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
@@ -3658,274 +3926,304 @@
       <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
+        <v>800</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>348300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>320800</v>
+      </c>
+      <c r="F59" s="3">
         <v>304400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>301800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>272700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>276100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>291300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>280300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>217100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>231600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>221700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>202000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>185900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>197800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>186500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>184500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>191300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>192100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>187800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>185500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>182800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>485400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>437000</v>
+      </c>
+      <c r="F60" s="3">
         <v>434000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>439000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>403100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>447300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>468800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>475200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>407900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>436000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>434500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>351100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>417200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>355000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>373400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>336400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>410100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>358800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>326900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>294200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F61" s="3">
         <v>250000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>306000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>330400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>340500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>388700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>440800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>458300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>376600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>416800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>460000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>470400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>420600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>440400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>368900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>371500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>229100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>299400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>280800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>336000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F62" s="3">
         <v>47400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>49100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>50300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>52200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>69800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>62000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>43900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>29300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>37300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>36700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>37000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>37900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>35000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>35100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>40200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>32400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>34200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>804200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>719500</v>
+      </c>
+      <c r="F66" s="3">
         <v>731400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>794100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>783800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>840000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>927300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>978000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>910100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>842100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>889600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>898000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>859500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>876700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>839700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>777300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>743000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>682000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>698300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>640000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>664400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F72" s="3">
         <v>19900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>27600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>25200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>22800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>40600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>65900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>50700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>46600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>40400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>20900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>488100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>518800</v>
+      </c>
+      <c r="F76" s="3">
         <v>521500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>498800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>475300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>472300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>482100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>484900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>495900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>505000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>516500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>515300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>515100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>531400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>563400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>581400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>581600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>572400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>547700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>535400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>277800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>23700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>20600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-22100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>18300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>22700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>15200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-13300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>10800</v>
       </c>
       <c r="K83" s="3">
         <v>10900</v>
       </c>
       <c r="L83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="N83" s="3">
         <v>11000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>11000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>11000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>11500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>7900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>7400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>57700</v>
+      </c>
+      <c r="F89" s="3">
         <v>63500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>35200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>30700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>35300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>30500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>61200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-39400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>37600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>28500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-72400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>93200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-25100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-33700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-26300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-18600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>48300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-57200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-10500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-16300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-72900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-14400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-158400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-38300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,16 +6250,18 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5802,46 +6270,46 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3100</v>
       </c>
       <c r="L96" s="3">
         <v>-3100</v>
       </c>
       <c r="M96" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="N96" s="3">
         <v>-3100</v>
       </c>
       <c r="O96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3200</v>
       </c>
       <c r="S96" s="3">
         <v>-3200</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-59300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-32800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-48500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-55500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-23900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>78600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-41700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>48200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-29900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>34400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-11700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>140200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-71400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>182300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>76300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-45800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>64000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-16500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-2800</v>
       </c>
       <c r="P102" s="3">
         <v>1600</v>
       </c>
       <c r="Q102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>576300</v>
+      </c>
+      <c r="E8" s="3">
         <v>537000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>589900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>593300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>643600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>554000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>616300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>582200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>532100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>652900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>617000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>615000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>518700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>659900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>597700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>608900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>514900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>683900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>595600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>545300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>442900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>519200</v>
+      </c>
+      <c r="E9" s="3">
         <v>481200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>524600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>516700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>556200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>492300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>554500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>515700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>494600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>484700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>591200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>545700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>542600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>472400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>586700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>518200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>536100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>462300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>587700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>517600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>472500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>395400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E10" s="3">
         <v>55800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>76600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>72800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>78000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>72800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1200</v>
       </c>
       <c r="O12" s="3">
         <v>1200</v>
       </c>
       <c r="P12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1600</v>
       </c>
       <c r="R12" s="3">
         <v>1600</v>
       </c>
       <c r="S12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,108 +1163,114 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
       </c>
       <c r="F15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4000</v>
       </c>
       <c r="M15" s="3">
         <v>4000</v>
@@ -1257,40 +1279,43 @@
         <v>4000</v>
       </c>
       <c r="O15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="P15" s="3">
         <v>4600</v>
       </c>
       <c r="Q15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>575500</v>
+      </c>
+      <c r="E17" s="3">
         <v>536100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>579100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>563800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>610300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>548500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>623500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>580600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>557400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>536800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>657900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>601100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>598900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>529900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>678300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>568800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>592500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>513900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>642700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>566800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>531000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>456600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1491,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1553,292 +1586,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5500</v>
       </c>
       <c r="H22" s="3">
         <v>5500</v>
       </c>
       <c r="I22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J22" s="3">
         <v>5400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7300</v>
       </c>
       <c r="L22" s="3">
         <v>7300</v>
       </c>
       <c r="M22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27800</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-12600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>5600</v>
       </c>
       <c r="O26" s="3">
         <v>5600</v>
       </c>
       <c r="P26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5600</v>
       </c>
       <c r="O27" s="3">
         <v>5600</v>
       </c>
       <c r="P27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,19 +2178,22 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>4200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2141,17 +2201,17 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>3500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2165,20 +2225,20 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>10400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>23700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5600</v>
       </c>
       <c r="O33" s="3">
         <v>5600</v>
       </c>
       <c r="P33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>23700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5600</v>
       </c>
       <c r="O35" s="3">
         <v>5600</v>
       </c>
       <c r="P35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>13900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E43" s="3">
         <v>249800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>213300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>198700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>231100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>207700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>229300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>217200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>253500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>236200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>281500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>225000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>266900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>232800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>251700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>224200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>243200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>243400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>223300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>188000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>562900</v>
+      </c>
+      <c r="E44" s="3">
         <v>527600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>481700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>519700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>532900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>533200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>537200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>572300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>594000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>532700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>513400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>557900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>536300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>529800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>514000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>531500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>483900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>486700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>452400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>457800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>417600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>341500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E45" s="3">
         <v>25600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>824600</v>
+      </c>
+      <c r="E46" s="3">
         <v>816900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>761000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>774300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>810100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>777300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>812000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>886800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>923800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>853400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>809100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>865200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>864600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>813600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>843100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>803200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>763500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>737700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>726800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>730200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>673300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>561000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E48" s="3">
         <v>177300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>176700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>172800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>175500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>191600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>207000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>220600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>220400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>201700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>203200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>206500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>214000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>214300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>241100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>238800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>227600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>217100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>207600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>198200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>161900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E49" s="3">
         <v>281200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>283600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>286000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>288400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>290900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>293400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>299600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>302500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>315700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>319700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>323700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>327500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>332000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>336400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>342500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>346700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>349900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>301100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>300300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>295500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>215500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>21600</v>
       </c>
       <c r="G52" s="3">
         <v>21600</v>
       </c>
       <c r="H52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I52" s="3">
         <v>15400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>16000</v>
       </c>
       <c r="K52" s="3">
         <v>16000</v>
       </c>
       <c r="L52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9700</v>
-      </c>
-      <c r="T52" s="3">
-        <v>9400</v>
       </c>
       <c r="U52" s="3">
         <v>9400</v>
       </c>
       <c r="V52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="W52" s="3">
         <v>8000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1285800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1292300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1238300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1252900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1292900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1259100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1312300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1409400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1462900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1406000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1347100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1406100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1413300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1374600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1408100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1403100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1358700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1324500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1254400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1246100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1175400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>942200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,87 +3925,91 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E57" s="3">
         <v>137100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>116200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>137200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>128700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>169500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>175800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>193200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>187400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>211000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>196500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>163900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>218100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>167200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>188100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>144300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>217300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>170200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>140600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>111400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3885,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1700</v>
@@ -3897,19 +4030,19 @@
         <v>1700</v>
       </c>
       <c r="L58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1800</v>
       </c>
       <c r="O58" s="3">
         <v>1800</v>
       </c>
       <c r="P58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="Q58" s="3">
         <v>1300</v>
@@ -3918,7 +4051,7 @@
         <v>1300</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
@@ -3932,298 +4065,313 @@
       <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>372500</v>
+      </c>
+      <c r="E59" s="3">
         <v>348300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>320800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>304400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>301800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>272700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>276100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>291300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>280300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>217100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>231600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>197800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>186500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>184500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>191300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>192100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>187800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>185500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>182800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>517200</v>
+      </c>
+      <c r="E60" s="3">
         <v>485400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>437000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>434000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>439000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>403100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>447300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>468800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>475200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>407900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>436000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>434500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>351100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>417200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>355000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>373400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>336400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>410100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>358800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>326900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>294200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E61" s="3">
         <v>256000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>215000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>250000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>306000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>330400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>340500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>388700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>440800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>458300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>376600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>416800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>460000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>470400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>420600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>440400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>368900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>371500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>229100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>299400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>280800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>336000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E62" s="3">
         <v>62800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>69800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>822300</v>
+      </c>
+      <c r="E66" s="3">
         <v>804200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>719500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>731400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>794100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>783800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>840000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>927300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>978000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>910100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>842100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>889600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>898000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>859500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>876700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>839700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>777300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>743000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>682000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>698300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>640000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>664400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-21100</v>
       </c>
       <c r="I72" s="3">
         <v>-21100</v>
       </c>
       <c r="J72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>65900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>463500</v>
+      </c>
+      <c r="E76" s="3">
         <v>488100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>518800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>521500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>498800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>475300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>472300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>482100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>495900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>505000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>516500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>515300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>515100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>531400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>563400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>581400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>581600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>572400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>547700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>535400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>277800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>23700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5600</v>
       </c>
       <c r="O81" s="3">
         <v>5600</v>
       </c>
       <c r="P81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>9600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>11000</v>
       </c>
       <c r="U83" s="3">
         <v>11000</v>
       </c>
       <c r="V83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-72400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>93200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-25100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-33700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,41 +6160,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5983,37 +6203,40 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>48300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-72900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-158400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,19 +6484,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
         <v>-3300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6276,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-3200</v>
       </c>
       <c r="L96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="M96" s="3">
         <v>-3100</v>
@@ -6291,19 +6524,19 @@
         <v>-3100</v>
       </c>
       <c r="O96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q96" s="3">
         <v>-3100</v>
       </c>
       <c r="R96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-3200</v>
       </c>
       <c r="T96" s="3">
         <v>-3200</v>
@@ -6312,7 +6545,7 @@
         <v>-3200</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E100" s="3">
         <v>8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-55500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>78600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>34400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>140200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-71400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>182300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>76300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>594800</v>
+      </c>
+      <c r="E8" s="3">
         <v>576300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>537000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>589900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>593300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>643600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>554000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>616300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>582200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>547000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>532100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>652900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>617000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>615000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>518700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>659900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>597700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>608900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>514900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>683900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>595600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>545300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>442900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E9" s="3">
         <v>519200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>481200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>524600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>516700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>556200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>492300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>554500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>515700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>494600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>484700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>591200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>545700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>542600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>472400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>586700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>518200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>536100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>462300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>587700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>517600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>472500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>395400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E10" s="3">
         <v>57100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>65300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>76600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>71300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>46300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>72800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>78000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>72800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1200</v>
       </c>
       <c r="P12" s="3">
         <v>1200</v>
       </c>
       <c r="Q12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R12" s="3">
         <v>1300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1600</v>
       </c>
       <c r="S12" s="3">
         <v>1600</v>
       </c>
       <c r="T12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,114 +1183,120 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2400</v>
       </c>
       <c r="F15" s="3">
         <v>2400</v>
       </c>
       <c r="G15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4000</v>
       </c>
       <c r="N15" s="3">
         <v>4000</v>
@@ -1282,40 +1305,43 @@
         <v>4000</v>
       </c>
       <c r="P15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="Q15" s="3">
         <v>4600</v>
       </c>
       <c r="R15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>577600</v>
+      </c>
+      <c r="E17" s="3">
         <v>575500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>536100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>579100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>563800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>610300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>548500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>623500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>580600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>557400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>536800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>657900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>601100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>598900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>529900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>678300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>568800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>592500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>513900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>642700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>566800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>531000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>456600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1589,304 +1623,319 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E21" s="3">
         <v>9500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>37000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>52300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>40400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5500</v>
       </c>
       <c r="I22" s="3">
         <v>5500</v>
       </c>
       <c r="J22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7300</v>
       </c>
       <c r="M22" s="3">
         <v>7300</v>
       </c>
       <c r="N22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>36000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>5600</v>
       </c>
       <c r="P26" s="3">
         <v>5600</v>
       </c>
       <c r="Q26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>5600</v>
       </c>
       <c r="P27" s="3">
         <v>5600</v>
       </c>
       <c r="Q27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2192,11 +2253,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>4200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2204,17 +2265,17 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>3500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2228,20 +2289,20 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>10400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>23700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5600</v>
       </c>
       <c r="P33" s="3">
         <v>5600</v>
       </c>
       <c r="Q33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R33" s="3">
         <v>-14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-22100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>23700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5600</v>
       </c>
       <c r="P35" s="3">
         <v>5600</v>
       </c>
       <c r="Q35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R35" s="3">
         <v>-14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-22100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E43" s="3">
         <v>222200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>249800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>213300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>198700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>231100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>207700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>229300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>217200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>253500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>236200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>281500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>225000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>266900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>232800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>251700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>224200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>243200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>243400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>223300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>188000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>599300</v>
+      </c>
+      <c r="E44" s="3">
         <v>562900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>527600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>481700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>519700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>532900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>533200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>537200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>572300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>594000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>532700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>513400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>557900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>536300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>529800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>514000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>531500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>483900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>486700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>452400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>457800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>417600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>341500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>52700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>876400</v>
+      </c>
+      <c r="E46" s="3">
         <v>824600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>816900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>761000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>774300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>810100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>777300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>812000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>886800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>923800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>853400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>809100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>865200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>864600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>813600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>843100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>803200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>763500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>737700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>726800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>730200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>673300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>561000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>166800</v>
+      </c>
+      <c r="E48" s="3">
         <v>167000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>177300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>176700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>172800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>175500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>191600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>207000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>220600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>220400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>201700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>203200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>206500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>214000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>214300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>241100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>238800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>227600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>217100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>207600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>198200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>161900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E49" s="3">
         <v>279200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>281200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>283600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>286000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>288400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>290900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>293400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>299600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>302500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>315700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>319700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>323700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>327500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>332000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>336400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>342500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>346700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>349900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>301100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>300300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>295500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>215500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>21600</v>
       </c>
       <c r="H52" s="3">
         <v>21600</v>
       </c>
       <c r="I52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J52" s="3">
         <v>15400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>16000</v>
       </c>
       <c r="L52" s="3">
         <v>16000</v>
       </c>
       <c r="M52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>9400</v>
       </c>
       <c r="V52" s="3">
         <v>9400</v>
       </c>
       <c r="W52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="X52" s="3">
         <v>8000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1332200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1285800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1292300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1238300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1252900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1292900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1259100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1312300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1409400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1462900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1406000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1347100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1406100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1413300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1374600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1408100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1403100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1358700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1324500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1254400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1246100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1175400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>942200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E57" s="3">
         <v>144700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>137100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>116200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>137200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>128700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>169500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>175800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>193200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>187400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>211000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>196500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>163900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>218100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>167200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>188100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>144300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>217300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>170200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>140600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>111400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,8 +4145,8 @@
       <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4021,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>1700</v>
@@ -4033,19 +4167,19 @@
         <v>1700</v>
       </c>
       <c r="M58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1800</v>
       </c>
       <c r="P58" s="3">
         <v>1800</v>
       </c>
       <c r="Q58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="R58" s="3">
         <v>1300</v>
@@ -4054,7 +4188,7 @@
         <v>1300</v>
       </c>
       <c r="T58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
@@ -4068,310 +4202,325 @@
       <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>415500</v>
+      </c>
+      <c r="E59" s="3">
         <v>372500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>348300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>320800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>304400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>301800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>272700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>276100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>291300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>280300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>217100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>231600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>185900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>197800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>186500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>191300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>192100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>187800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>185500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>182800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>574700</v>
+      </c>
+      <c r="E60" s="3">
         <v>517200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>485400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>437000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>434000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>439000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>403100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>447300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>475200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>407900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>436000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>434500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>351100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>417200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>355000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>373400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>336400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>410100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>358800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>326900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>294200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E61" s="3">
         <v>243000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>256000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>215000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>250000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>306000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>330400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>340500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>388700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>440800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>458300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>376600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>416800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>460000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>470400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>420600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>440400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>368900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>371500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>229100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>299400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>280800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>336000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E62" s="3">
         <v>62100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>67500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>32400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>884200</v>
+      </c>
+      <c r="E66" s="3">
         <v>822300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>804200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>719500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>731400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>794100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>783800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>840000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>927300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>978000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>910100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>842100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>889600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>898000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>859500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>876700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>839700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>777300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>743000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>682000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>698300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>640000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>664400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-21100</v>
       </c>
       <c r="J72" s="3">
         <v>-21100</v>
       </c>
       <c r="K72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>65900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E76" s="3">
         <v>463500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>488100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>518800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>521500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>498800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>475300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>472300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>482100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>484900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>495900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>505000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>516500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>515300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>515100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>531400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>563400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>581400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>581600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>572400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>547700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>535400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>277800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>23700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5600</v>
       </c>
       <c r="P81" s="3">
         <v>5600</v>
       </c>
       <c r="Q81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R81" s="3">
         <v>-14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-22100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>11000</v>
       </c>
       <c r="V83" s="3">
         <v>11000</v>
       </c>
       <c r="W83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E89" s="3">
         <v>31100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>63500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-39400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-72400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>93200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-33700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,44 +6381,45 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6206,37 +6427,40 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>48300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-72900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-158400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,22 +6718,23 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3300</v>
       </c>
       <c r="F96" s="3">
         <v>-3300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6512,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-3200</v>
       </c>
       <c r="M96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="N96" s="3">
         <v>-3100</v>
@@ -6527,19 +6761,19 @@
         <v>-3100</v>
       </c>
       <c r="P96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3100</v>
       </c>
       <c r="R96" s="3">
         <v>-3100</v>
       </c>
       <c r="S96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-3200</v>
       </c>
       <c r="U96" s="3">
         <v>-3200</v>
@@ -6548,7 +6782,7 @@
         <v>-3200</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-59300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>78600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>34400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>140200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-71400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>182300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>76300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>583500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>623500</v>
+      </c>
+      <c r="F8" s="3">
         <v>594800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>576300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>537000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>589900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>593300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>643600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>616300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>582200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>547000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>532100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>652900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>617000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>615000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>518700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>659900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>597700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>608900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>514900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>683900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>595600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>545300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>442900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>525600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>556700</v>
+      </c>
+      <c r="F9" s="3">
         <v>527000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>519200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>481200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>524600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>516700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>556200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>492300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>554500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>515700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>494600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>484700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>591200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>545700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>542600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>472400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>586700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>518200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>536100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>462300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>587700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>517600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>472500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>395400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F10" s="3">
         <v>67800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>57100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>65300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>76600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>87400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>61700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>61800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>66500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>52400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>47400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>61700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>71300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>72400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>46300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>73200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>79500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>72800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>52600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>96200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>78000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>72800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>47500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,76 +1069,82 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1100</v>
       </c>
       <c r="P12" s="3">
         <v>1200</v>
       </c>
       <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>900</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1000</v>
       </c>
       <c r="Z12" s="3">
         <v>1200</v>
       </c>
       <c r="AA12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1220,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>8300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>35900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>4100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>2300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>12300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4000</v>
       </c>
       <c r="P15" s="3">
         <v>4000</v>
       </c>
       <c r="Q15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S15" s="3">
         <v>4600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>4600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>4500</v>
       </c>
       <c r="T15" s="3">
         <v>4600</v>
       </c>
       <c r="U15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W15" s="3">
         <v>4300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>4700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>4500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>5100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>2700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>2600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>594800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>605500</v>
+      </c>
+      <c r="F17" s="3">
         <v>577600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>575500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>536100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>579100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>563800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>610300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>548500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>623500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>580600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>557400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>536800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>657900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>601100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>598900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>529900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>678300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>568800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>592500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>513900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>642700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>566800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>531000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>456600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F18" s="3">
         <v>17200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>29500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>33300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>15900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>16100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-11200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-18400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>28900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>16400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>41200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>28800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>14300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,29 +1615,31 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1626,316 +1694,346 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F21" s="3">
         <v>24100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>37000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>41400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>27500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>40700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>27500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>12000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>52300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>40400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>22200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2900</v>
       </c>
       <c r="H22" s="3">
         <v>3400</v>
       </c>
       <c r="I22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>6100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>5400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>5300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>4600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>3400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>7500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F23" s="3">
         <v>12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>27800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-17700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-25700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>22100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>10300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>36000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>24300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>10900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>13300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>9100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>4100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F26" s="3">
         <v>9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>23700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-14600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-20900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>16200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>22700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>15200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>6800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>23700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-11100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-14600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-20900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>16200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>22700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>15200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>6800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,46 +2358,52 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>4200</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>4200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2292,23 +2414,23 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>2100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>10400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,29 +2607,35 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2690,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>23700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-14600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-22100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>18300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>9400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>22700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>15200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>23700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-14600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-22100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>18300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>9400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>22700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>15200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>67300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>13200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>17800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>14100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>14000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>15100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3255,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F43" s="3">
         <v>224300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>222200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>249800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>213300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>198700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>231100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>207700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>229300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>239300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>217200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>230500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>253500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>236200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>281500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>225000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>266900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>232800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>251700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>224200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>243200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>243400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>223300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>188000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>671900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>629500</v>
+      </c>
+      <c r="F44" s="3">
         <v>599300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>562900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>527600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>481700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>519700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>532900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>533200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>537200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>572300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>594000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>532700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>513400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>557900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>536300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>529800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>514000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>531500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>483900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>486700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>452400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>457800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>417600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>341500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F45" s="3">
         <v>38000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>25600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>52700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>46700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>38400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>27300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>34100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>57900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>91100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>38900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>51300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>40300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>45300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>50300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>24200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>14700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>14100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>13400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>14900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>18300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>16400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>941300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>888400</v>
+      </c>
+      <c r="F46" s="3">
         <v>876400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>824600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>816900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>761000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>774300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>810100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>777300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>812000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>886800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>923800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>853400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>809100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>865200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>864600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>813600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>843100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>803200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>763500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>737700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>726800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>730200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>673300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>561000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3670,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="F48" s="3">
         <v>166800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>167000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>177300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>176700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>171000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>172800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>175500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>191600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>207000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>220600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>220400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>201700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>203200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>206500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>214000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>214300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>241100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>238800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>227600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>217100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>207600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>198200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>161900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>276500</v>
+      </c>
+      <c r="F49" s="3">
         <v>277800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>279200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>281200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>283600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>286000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>288400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>290900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>293400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>299600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>302500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>315700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>319700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>323700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>327500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>332000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>336400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>342500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>346700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>349900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>301100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>300300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>295500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>215500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F52" s="3">
         <v>11200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>21600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>21600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>15300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>16000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>16500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>14700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>15000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>14300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>16300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>8000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>8500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>3900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1401600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1332200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1285800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1292300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1238300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1252900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1292900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1259100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1312300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1409400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1462900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1406000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1347100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1406100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1413300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1374600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1408100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1403100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1358700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1324500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1254400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1246100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1175400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>942200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,96 +4317,104 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>163900</v>
+      </c>
+      <c r="F57" s="3">
         <v>159200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>144700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>137100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>116200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>129600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>137200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>128700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>169500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>175800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>193200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>187400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>211000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>196500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>163900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>218100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>167200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>188100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>144300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>217300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>170200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>140600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>111400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4158,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
@@ -4170,31 +4438,31 @@
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1300</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
       </c>
       <c r="U58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="V58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="W58" s="3">
         <v>800</v>
@@ -4205,168 +4473,186 @@
       <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="Z58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>335500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>363500</v>
+      </c>
+      <c r="F59" s="3">
         <v>415500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>372500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>348300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>320800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>304400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>301800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>272700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>276100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>291300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>280300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>217100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>231600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>221700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>202000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>185900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>197800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>186500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>184500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>191300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>192100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>187800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>185500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>182800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>522600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>527400</v>
+      </c>
+      <c r="F60" s="3">
         <v>574700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>517200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>485400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>437000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>434000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>439000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>403100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>447300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>468800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>475200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>407900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>436000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>434500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>351100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>417200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>355000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>373400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>336400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>410100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>358800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>326900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>294200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,153 +4660,165 @@
         <v>250000</v>
       </c>
       <c r="E61" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="G61" s="3">
         <v>243000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>256000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>215000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>250000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>306000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>330400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>340500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>388700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>440800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>458300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>376600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>416800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>460000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>470400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>420600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>440400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>368900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>371500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>229100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>299400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>280800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>336000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>130900</v>
+      </c>
+      <c r="F62" s="3">
         <v>59500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>62100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>62800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>67500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>47400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>49100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>50300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>52200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>69800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>62000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>43900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>29300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>37300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>36700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>37000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>37900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>44300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>35000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>35100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>42800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>40200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>32400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>34200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>960900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>888300</v>
+      </c>
+      <c r="F66" s="3">
         <v>884200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>822300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>804200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>719500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>731400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>794100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>783800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>840000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>927300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>978000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>910100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>842100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>889600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>898000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>859500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>876700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>839700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>777300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>743000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>682000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>698300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>640000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>664400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F72" s="3">
         <v>13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>16700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>19900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>27600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>25200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>22800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>40600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>65900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>50700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>46600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>40400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>20900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>8900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>456300</v>
+      </c>
+      <c r="F76" s="3">
         <v>448000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>463500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>488100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>518800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>521500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>498800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>475300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>472300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>482100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>484900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>495900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>505000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>516500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>515300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>515100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>531400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>563400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>581400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>581600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>572400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>547700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>535400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>277800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>23700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-14600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-22100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>18300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>9400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>22700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>15200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,76 +6221,82 @@
         <v>6900</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>10800</v>
       </c>
       <c r="O83" s="3">
         <v>10900</v>
       </c>
       <c r="P83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="R83" s="3">
         <v>11000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>12400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>12100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>11800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>11100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>11000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>11000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>11500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>7900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>7400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G89" s="3">
         <v>31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>57700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>63500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>35200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>30700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>35300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-13300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>61200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-39400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>37600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-12900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>28500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-72400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>93200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-33700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-9000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-26300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-18600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>48300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-57200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>11900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-10500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-19900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-16300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-72900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-158400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,29 +7185,31 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-3300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6749,46 +7217,46 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3100</v>
       </c>
       <c r="P96" s="3">
         <v>-3100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="R96" s="3">
         <v>-3100</v>
       </c>
       <c r="S96" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-3200</v>
       </c>
       <c r="W96" s="3">
         <v>-3200</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="Y96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7513,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-17800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-37600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-42800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-59300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-32800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-48500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-55500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-23900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>78600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-41700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-19100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>48200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-29900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>34400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-11700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>140200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-71400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>15700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>182300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>76300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F102" s="3">
         <v>8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-45800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>64000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-16500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>13300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7000</v>
-      </c>
-      <c r="R102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-2800</v>
       </c>
       <c r="T102" s="3">
         <v>1600</v>
       </c>
       <c r="U102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>681200</v>
+      </c>
+      <c r="E8" s="3">
         <v>583500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>623500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>594800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>576300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>537000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>589900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>593300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>643600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>554000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>616300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>582200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>547000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>532100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>652900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>617000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>615000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>518700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>659900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>597700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>608900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>514900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>683900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>595600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>545300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>442900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>598700</v>
+      </c>
+      <c r="E9" s="3">
         <v>525600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>556700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>527000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>519200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>481200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>524600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>516700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>556200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>492300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>554500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>515700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>494600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>484700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>591200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>545700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>542600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>472400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>586700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>518200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>536100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>462300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>587700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>517600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>472500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>395400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E10" s="3">
         <v>57900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>65300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>76600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>87400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>71300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>72400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>46300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>79500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>72800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>52600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>96200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>78000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>72800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>47500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1200</v>
       </c>
       <c r="S12" s="3">
         <v>1200</v>
       </c>
       <c r="T12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U12" s="3">
         <v>1300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1600</v>
       </c>
       <c r="V12" s="3">
         <v>1600</v>
       </c>
       <c r="W12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,132 +1242,138 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>1400</v>
       </c>
       <c r="F15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2400</v>
       </c>
       <c r="I15" s="3">
         <v>2400</v>
       </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4000</v>
       </c>
       <c r="Q15" s="3">
         <v>4000</v>
@@ -1360,40 +1382,43 @@
         <v>4000</v>
       </c>
       <c r="S15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T15" s="3">
         <v>4600</v>
       </c>
       <c r="U15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V15" s="3">
         <v>4500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>2700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>2600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>653300</v>
+      </c>
+      <c r="E17" s="3">
         <v>594800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>605500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>577600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>575500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>536100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>579100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>563800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>610300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>548500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>623500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>580600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>557400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>536800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>657900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>601100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>598900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>529900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>678300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>568800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>592500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>513900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>642700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>566800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>531000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>456600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>28800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,19 +1649,20 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1638,11 +1671,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1700,340 +1733,355 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>27500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>52300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>40400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>22200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5500</v>
       </c>
       <c r="L22" s="3">
         <v>5500</v>
       </c>
       <c r="M22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N22" s="3">
         <v>5400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>7300</v>
       </c>
       <c r="P22" s="3">
         <v>7300</v>
       </c>
       <c r="Q22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-12600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>36000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>24300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-21100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3400</v>
       </c>
       <c r="F24" s="3">
         <v>3400</v>
       </c>
       <c r="G24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>5600</v>
       </c>
       <c r="S26" s="3">
         <v>5600</v>
       </c>
       <c r="T26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-14600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>15200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>5600</v>
       </c>
       <c r="S27" s="3">
         <v>5600</v>
       </c>
       <c r="T27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-14600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>15200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,19 +2421,22 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2384,11 +2444,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>4200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2396,17 +2456,17 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2420,20 +2480,20 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>10400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,19 +2679,22 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2634,11 +2703,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>5600</v>
       </c>
       <c r="S33" s="3">
         <v>5600</v>
       </c>
       <c r="T33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-14600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-22100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>5600</v>
       </c>
       <c r="S35" s="3">
         <v>5600</v>
       </c>
       <c r="T35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-14600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-22100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E43" s="3">
         <v>218800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>215000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>224300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>222200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>249800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>213300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>198700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>231100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>207700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>229300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>239300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>217200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>230500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>253500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>236200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>281500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>225000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>266900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>232800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>251700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>224200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>243200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>243400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>223300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>188000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>654400</v>
+      </c>
+      <c r="E44" s="3">
         <v>671900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>629500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>599300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>562900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>527600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>481700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>519700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>532900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>533200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>537200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>572300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>594000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>532700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>513400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>557900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>536300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>529800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>514000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>531500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>483900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>486700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>452400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>457800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>417600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>341500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E45" s="3">
         <v>27600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>14900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>16400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>924400</v>
+      </c>
+      <c r="E46" s="3">
         <v>941300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>888400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>876400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>824600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>816900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>761000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>774300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>810100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>777300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>812000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>886800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>923800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>853400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>809100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>865200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>864600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>813600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>843100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>803200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>763500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>737700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>726800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>730200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>673300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>561000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3780,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E48" s="3">
         <v>175400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>166800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>177300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>176700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>171000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>172800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>175500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>191600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>207000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>220600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>220400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>201700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>203200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>206500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>214000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>214300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>241100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>238800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>227600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>217100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>207600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>198200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>161900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E49" s="3">
         <v>275100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>276500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>277800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>279200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>281200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>283600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>286000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>288400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>290900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>293400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>299600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>302500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>315700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>319700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>323700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>327500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>332000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>336400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>342500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>346700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>349900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>301100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>300300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>295500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>215500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>21600</v>
       </c>
       <c r="K52" s="3">
         <v>21600</v>
       </c>
       <c r="L52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>16000</v>
       </c>
       <c r="O52" s="3">
         <v>16000</v>
       </c>
       <c r="P52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>16500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9700</v>
-      </c>
-      <c r="X52" s="3">
-        <v>9400</v>
       </c>
       <c r="Y52" s="3">
         <v>9400</v>
       </c>
       <c r="Z52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AA52" s="3">
         <v>8000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1392500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1401600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1344600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1332200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1285800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1292300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1238300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1252900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1292900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1259100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1312300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1409400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1462900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1347100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1406100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1413300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1374600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1408100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1403100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1358700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1324500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1254400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1246100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1175400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>942200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E57" s="3">
         <v>187100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>163900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>159200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>144700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>137100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>116200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>137200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>128700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>175800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>193200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>187400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>211000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>196500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>163900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>218100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>167200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>188100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>144300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>217300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>170200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>140600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>111400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4432,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
@@ -4444,19 +4577,19 @@
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1800</v>
       </c>
       <c r="S58" s="3">
         <v>1800</v>
       </c>
       <c r="T58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="U58" s="3">
         <v>1300</v>
@@ -4465,7 +4598,7 @@
         <v>1300</v>
       </c>
       <c r="W58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
@@ -4479,346 +4612,361 @@
       <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AB58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E59" s="3">
         <v>335500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>363500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>415500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>372500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>348300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>320800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>304400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>301800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>272700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>276100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>291300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>280300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>217100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>231600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>202000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>185900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>197800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>186500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>184500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>191300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>192100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>187800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>185500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>182800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>535500</v>
+      </c>
+      <c r="E60" s="3">
         <v>522600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>527400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>574700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>517200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>485400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>437000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>434000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>439000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>403100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>447300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>468800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>475200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>407900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>436000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>434500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>351100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>417200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>355000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>373400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>336400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>410100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>358800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>326900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>294200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E61" s="3">
         <v>250000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>230000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>250000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>243000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>256000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>215000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>250000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>306000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>330400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>340500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>388700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>440800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>458300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>376600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>416800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>460000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>470400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>420600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>440400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>368900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>371500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>229100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>299400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>280800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>336000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E62" s="3">
         <v>188300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>130900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>67500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>69800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>62000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>40200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>32400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>34200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>939200</v>
+      </c>
+      <c r="E66" s="3">
         <v>960900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>888300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>884200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>822300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>804200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>719500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>731400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>794100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>783800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>840000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>927300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>978000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>910100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>842100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>889600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>898000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>859500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>876700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>839700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>777300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>743000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>682000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>698300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>640000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>664400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-21100</v>
       </c>
       <c r="M72" s="3">
         <v>-21100</v>
       </c>
       <c r="N72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>65900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>50700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>453300</v>
+      </c>
+      <c r="E76" s="3">
         <v>440700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>456300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>448000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>463500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>488100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>518800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>521500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>498800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>475300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>472300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>482100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>484900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>495900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>505000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>516500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>515300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>515100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>531400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>563400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>581400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>581600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>572400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>547700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>535400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>277800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>5600</v>
       </c>
       <c r="S81" s="3">
         <v>5600</v>
       </c>
       <c r="T81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-14600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-22100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>11000</v>
       </c>
       <c r="Y83" s="3">
         <v>11000</v>
       </c>
       <c r="Z83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>11500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>32100</v>
       </c>
       <c r="F89" s="3">
         <v>32100</v>
       </c>
       <c r="G89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="H89" s="3">
         <v>31100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>61200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-39400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-72400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>93200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-25100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-33700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,53 +7043,54 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6878,37 +7098,40 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>2100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-18600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>48300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-72900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-158400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-38300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,31 +7419,32 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3300</v>
       </c>
       <c r="I96" s="3">
         <v>-3300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7223,13 +7456,13 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-3200</v>
       </c>
       <c r="P96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="Q96" s="3">
         <v>-3100</v>
@@ -7238,19 +7471,19 @@
         <v>-3100</v>
       </c>
       <c r="S96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-3100</v>
       </c>
       <c r="U96" s="3">
         <v>-3100</v>
       </c>
       <c r="V96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-3200</v>
       </c>
       <c r="X96" s="3">
         <v>-3200</v>
@@ -7259,7 +7492,7 @@
         <v>-3200</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E100" s="3">
         <v>12500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-37600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-42800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-59300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>78600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-29900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>34400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>140200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-71400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>15700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>182300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>76300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-6400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>REVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E8" s="3">
         <v>681200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>583500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>623500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>594800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>576300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>537000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>589900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>593300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>643600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>554000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>616300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>582200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>547000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>532100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>652900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>617000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>615000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>518700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>659900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>597700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>608900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>514900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>683900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>595600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>545300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>442900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>544800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>599800</v>
+      </c>
+      <c r="E9" s="3">
         <v>598700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>525600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>556700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>527000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>519200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>481200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>524600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>516700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>556200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>492300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>554500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>515700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>494600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>484700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>591200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>545700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>542600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>472400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>586700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>518200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>536100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>462300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>587700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>517600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>472500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>395400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>472400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E10" s="3">
         <v>82500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>65300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>87400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>71300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>72400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>46300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>79500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>72800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>52600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>96200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>78000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>72800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>47500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,85 +1096,88 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1200</v>
       </c>
       <c r="T12" s="3">
         <v>1200</v>
       </c>
       <c r="U12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V12" s="3">
         <v>1300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1600</v>
       </c>
       <c r="W12" s="3">
         <v>1600</v>
       </c>
       <c r="X12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,138 +1262,144 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>35900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1400</v>
       </c>
       <c r="F15" s="3">
         <v>1400</v>
       </c>
       <c r="G15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2400</v>
       </c>
       <c r="J15" s="3">
         <v>2400</v>
       </c>
       <c r="K15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4000</v>
       </c>
       <c r="R15" s="3">
         <v>4000</v>
@@ -1385,40 +1408,43 @@
         <v>4000</v>
       </c>
       <c r="T15" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="U15" s="3">
         <v>4600</v>
       </c>
       <c r="V15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W15" s="3">
         <v>4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>2700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2600</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>654300</v>
+      </c>
+      <c r="E17" s="3">
         <v>653300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>594800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>605500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>577600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>575500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>536100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>579100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>563800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>610300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>548500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>623500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>580600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>557400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>536800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>657900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>601100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>598900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>529900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>678300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>568800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>592500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>513900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>642700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>566800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>531000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>456600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>518500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E18" s="3">
         <v>27900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>28800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,22 +1683,23 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1674,11 +1708,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1736,352 +1770,367 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E21" s="3">
         <v>33900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>40700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>27500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>52300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>40400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>22200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-6200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5500</v>
       </c>
       <c r="M22" s="3">
         <v>5500</v>
       </c>
       <c r="N22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O22" s="3">
         <v>5400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>7300</v>
       </c>
       <c r="Q22" s="3">
         <v>7300</v>
       </c>
       <c r="R22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E23" s="3">
         <v>20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-25700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>36000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>24300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-21100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3400</v>
       </c>
       <c r="G24" s="3">
         <v>3400</v>
       </c>
       <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>5600</v>
       </c>
       <c r="T26" s="3">
         <v>5600</v>
       </c>
       <c r="U26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V26" s="3">
         <v>-14600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>5600</v>
       </c>
       <c r="T27" s="3">
         <v>5600</v>
       </c>
       <c r="U27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V27" s="3">
         <v>-14600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>15200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2435,11 +2496,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2447,11 +2508,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>4200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2459,17 +2520,17 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2483,20 +2544,20 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>10400</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,22 +2749,25 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2706,11 +2776,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>5600</v>
       </c>
       <c r="T33" s="3">
         <v>5600</v>
       </c>
       <c r="U33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V33" s="3">
         <v>-14600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-22100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>5600</v>
       </c>
       <c r="T35" s="3">
         <v>5600</v>
       </c>
       <c r="U35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V35" s="3">
         <v>-14600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-22100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E43" s="3">
         <v>239500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>218800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>215000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>224300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>222200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>249800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>213300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>198700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>231100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>207700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>229300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>239300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>217200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>230500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>253500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>236200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>281500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>225000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>266900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>232800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>251700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>224200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>243200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>243400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>223300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>188000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>181200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E44" s="3">
         <v>654400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>671900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>629500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>599300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>562900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>527600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>481700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>519700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>532900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>533200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>537200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>572300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>594000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>532700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>513400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>557900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>536300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>529800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>514000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>531500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>483900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>486700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>452400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>457800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>417600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>341500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>14100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>13400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>14900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>16400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E46" s="3">
         <v>924400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>941300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>888400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>876400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>824600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>816900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>761000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>774300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>810100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>777300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>812000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>886800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>923800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>853400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>809100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>865200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>864600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>813600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>843100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>803200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>763500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>737700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>726800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>730200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>673300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>561000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>529700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E48" s="3">
         <v>184900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>169100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>166800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>177300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>176700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>171000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>175500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>191600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>207000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>220600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>220400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>201700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>203200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>206500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>214000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>214300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>241100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>238800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>227600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>217100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>207600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>198200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>161900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>273500</v>
+      </c>
+      <c r="E49" s="3">
         <v>274100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>275100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>276500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>277800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>279200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>281200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>283600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>286000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>288400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>290900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>293400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>299600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>302500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>315700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>319700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>323700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>327500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>332000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>336400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>342500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>346700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>349900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>301100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>300300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>295500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>215500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>208500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>21600</v>
       </c>
       <c r="L52" s="3">
         <v>21600</v>
       </c>
       <c r="M52" s="3">
+        <v>21600</v>
+      </c>
+      <c r="N52" s="3">
         <v>15400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>16000</v>
       </c>
       <c r="P52" s="3">
         <v>16000</v>
       </c>
       <c r="Q52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R52" s="3">
         <v>16500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9700</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>9400</v>
       </c>
       <c r="Z52" s="3">
         <v>9400</v>
       </c>
       <c r="AA52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AB52" s="3">
         <v>8000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1379500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1392500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1401600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1344600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1332200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1285800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1292300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1238300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1252900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1292900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1259100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1312300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1409400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1462900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1406000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1347100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1406100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1413300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1374600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1408100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1403100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1358700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1324500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1254400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1246100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1175400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>942200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>889000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E57" s="3">
         <v>185700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>187100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>163900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>159200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>144700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>137100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>116200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>129600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>137200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>128700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>175800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>193200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>187400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>211000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>196500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>163900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>218100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>167200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>188100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>144300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>217300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>170200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>140600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>111400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4568,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
@@ -4580,19 +4714,19 @@
         <v>1700</v>
       </c>
       <c r="Q58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1800</v>
       </c>
       <c r="T58" s="3">
         <v>1800</v>
       </c>
       <c r="U58" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="V58" s="3">
         <v>1300</v>
@@ -4601,7 +4735,7 @@
         <v>1300</v>
       </c>
       <c r="X58" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="Y58" s="3">
         <v>800</v>
@@ -4615,358 +4749,373 @@
       <c r="AB58" s="3">
         <v>800</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AC58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E59" s="3">
         <v>349800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>335500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>363500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>415500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>372500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>348300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>320800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>301800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>272700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>276100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>291300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>280300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>217100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>231600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>202000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>185900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>197800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>186500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>184500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>191300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>192100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>187800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>185500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>182800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>202100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>548300</v>
+      </c>
+      <c r="E60" s="3">
         <v>535500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>522600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>527400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>574700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>517200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>485400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>437000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>434000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>439000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>403100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>447300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>468800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>475200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>407900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>436000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>434500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>351100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>417200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>355000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>373400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>336400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>410100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>358800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>326900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>294200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>331600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E61" s="3">
         <v>230000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>250000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>230000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>250000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>243000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>256000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>215000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>250000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>306000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>330400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>340500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>388700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>440800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>458300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>376600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>416800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>460000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>470400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>420600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>440400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>368900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>371500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>229100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>299400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>280800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>336000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E62" s="3">
         <v>173700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>188300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>130900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>62000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>42800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>40200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>32400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>34200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>910900</v>
+      </c>
+      <c r="E66" s="3">
         <v>939200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>960900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>888300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>884200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>822300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>804200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>719500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>731400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>794100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>783800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>840000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>927300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>978000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>910100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>842100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>889600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>898000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>859500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>876700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>839700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>777300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>743000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>682000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>698300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>640000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>664400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-21100</v>
       </c>
       <c r="N72" s="3">
         <v>-21100</v>
       </c>
       <c r="O72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>65900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>50700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>46600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468600</v>
+      </c>
+      <c r="E76" s="3">
         <v>453300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>440700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>456300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>448000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>463500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>488100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>518800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>521500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>498800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>475300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>472300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>482100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>484900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>495900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>505000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>516500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>515300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>515100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>531400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>563400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>581400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>581600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>572400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>547700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>535400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>277800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>260200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>5600</v>
       </c>
       <c r="T81" s="3">
         <v>5600</v>
       </c>
       <c r="U81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V81" s="3">
         <v>-14600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-22100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11100</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>11000</v>
       </c>
       <c r="Z83" s="3">
         <v>11000</v>
       </c>
       <c r="AA83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>11500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E89" s="3">
         <v>15100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>32100</v>
       </c>
       <c r="G89" s="3">
         <v>32100</v>
       </c>
       <c r="H89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I89" s="3">
         <v>31100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>61200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-39400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>93200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-25100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-33700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,56 +7264,57 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -7101,37 +7322,40 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>2100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-18600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>48300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-72900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-158400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-38300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7429,25 +7663,25 @@
         <v>-3000</v>
       </c>
       <c r="E96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3300</v>
       </c>
       <c r="J96" s="3">
         <v>-3300</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -7459,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-3200</v>
       </c>
       <c r="Q96" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="R96" s="3">
         <v>-3100</v>
@@ -7474,19 +7708,19 @@
         <v>-3100</v>
       </c>
       <c r="T96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3100</v>
       </c>
       <c r="V96" s="3">
         <v>-3100</v>
       </c>
       <c r="W96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-3200</v>
       </c>
       <c r="Y96" s="3">
         <v>-3200</v>
@@ -7495,7 +7729,7 @@
         <v>-3200</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-37600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-42800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>78600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>48200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-29900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>34400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>140200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-71400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>15700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>182300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>76300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-76400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>64000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-6400</v>
       </c>
     </row>
